--- a/tables/texmath_counts_fullset.xlsx
+++ b/tables/texmath_counts_fullset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,15 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.64356435643565</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3564356435643565</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
